--- a/docs/Tableau_de_synthèse_Léo_SOLANA-DUPLAA.xlsx
+++ b/docs/Tableau_de_synthèse_Léo_SOLANA-DUPLAA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9468834-F71A-4DC2-B4B5-035D41BAFF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F3508-5530-48A2-A25F-3D2E924DAAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:U997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1380,9 +1380,13 @@
       <c r="B10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="28" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1416,9 @@
       <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="29"/>
       <c r="F12" s="10"/>
@@ -1428,9 +1434,13 @@
       <c r="B13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
         <v>22</v>
